--- a/GestionDeProjet/Commandes.xlsx
+++ b/GestionDeProjet/Commandes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s-cahors\Elsys\STAGES\22-9999-STAGE-ROBOT_AUTONOME_HOLONOME_V3\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D0B0F-6825-4BB1-9DCD-F673C25F7D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B38917-2F07-4D43-9513-7A8604898E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Farnell</t>
   </si>
@@ -80,11 +80,16 @@
     <t>https://fr.farnell.com/digilent/410-358/module-camera-carte-capteur-d/dp/2987302</t>
   </si>
   <si>
-    <t xml:space="preserve">PCAM 5C
-</t>
+    <t>Ref fabricant : 410-358</t>
   </si>
   <si>
-    <t>Ref fabricant : 410-358</t>
+    <t>Pmod ESP32: Wireless Communication Module</t>
+  </si>
+  <si>
+    <t>https://digilent.com/shop/pmod-esp32-wireless-communication-module/</t>
+  </si>
+  <si>
+    <t>PCAM 5C</t>
   </si>
 </sst>
 </file>
@@ -92,9 +97,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;€&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ [$€-1]"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -263,7 +268,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -278,13 +283,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -293,10 +298,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,22 +313,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -609,7 +614,7 @@
   <dimension ref="A1:H989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,29 +664,14 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10">
-        <v>359</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="12">
-        <f>D3*E3</f>
-        <v>359</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -695,10 +685,10 @@
     </row>
     <row r="5" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>0</v>
@@ -738,25 +728,53 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+    <row r="8" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>359</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12">
+        <f>D8*E8</f>
+        <v>359</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10">
+        <v>25.99</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
+        <f>D9*E9</f>
+        <v>25.99</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -789,7 +807,7 @@
       </c>
       <c r="G12" s="22">
         <f>SUM(G2:G11)</f>
-        <v>396.67</v>
+        <v>422.66</v>
       </c>
       <c r="H12" s="19"/>
     </row>
@@ -5210,8 +5228,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{609C4B31-DB07-4687-A54E-E910D5FE5721}"/>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{609C4B31-DB07-4687-A54E-E910D5FE5721}"/>
     <hyperlink ref="H5" r:id="rId2" xr:uid="{5E38454D-7637-4F23-AD81-C1DD33FB0D7C}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{9C1D1F7E-6881-4784-819F-F23EDB031D75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GestionDeProjet/Commandes.xlsx
+++ b/GestionDeProjet/Commandes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s-cahors\Elsys\STAGES\22-9999-STAGE-ROBOT_AUTONOME_HOLONOME_V3\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C95E6A9-C017-4593-B163-B91C1981F5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBCB9D3-A313-4395-A191-156AFCE14B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Farnell</t>
   </si>
@@ -97,6 +97,21 @@
   <si>
     <t>https://fr.farnell.com/en-FR/yageo/aes-acc-u96-jtag/pod-usb-jtag-uart/dp/2915522</t>
   </si>
+  <si>
+    <t>Creality 3D Printer Filament PLA 1.75mm 1KG Bobine,Matériaux d'impression 3D en filament- Noir</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Creality-3D-Filament-1-75mm-imprimante/dp/B07HNWFQPN/ref=sr_1_5?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=filament%2Bpla%2B1.75%2Bcreality&amp;qid=1622454352&amp;sr=8-5&amp;th=1</t>
+  </si>
+  <si>
+    <t>JSAUX Câble Micro USB [1M+2M/Lot de 2]</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/JSAUX-Durable-t%C3%A9l%C3%A9phones-intelligents-Plus-Rouge/dp/B07V6CNQYC/ref=sr_1_11?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=cable%2Busb%2B2.0&amp;qid=1648643794&amp;s=computers&amp;sr=1-11&amp;th=1</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +122,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +155,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -292,7 +313,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -384,6 +405,24 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -668,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H985"/>
+  <dimension ref="A1:H988"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +759,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
@@ -745,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
@@ -778,8 +817,8 @@
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -803,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -827,59 +866,85 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="35">
+        <v>23.59</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="22">
+        <f>D9*E9</f>
+        <v>23.59</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="35">
+        <v>9.99</v>
+      </c>
+      <c r="E10" s="36">
+        <v>2</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="22">
+        <f>D10*E10</f>
+        <v>19.98</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="9">
-        <f>SUM(G2:G7)</f>
-        <v>459.09000000000003</v>
+      <c r="G11" s="9">
+        <f>SUM(G2:G10)</f>
+        <v>502.66</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
@@ -2842,34 +2907,34 @@
       <c r="H208" s="10"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="10"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="10"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
@@ -2962,13 +3027,34 @@
       <c r="H220" s="1"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
       <c r="D221" s="12"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
       <c r="D222" s="12"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
       <c r="D223" s="12"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D224" s="12"/>
@@ -5255,6 +5341,15 @@
     </row>
     <row r="985" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D985" s="12"/>
+    </row>
+    <row r="986" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D986" s="12"/>
+    </row>
+    <row r="987" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D987" s="12"/>
+    </row>
+    <row r="988" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D988" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5262,7 +5357,10 @@
     <hyperlink ref="H3" r:id="rId2" xr:uid="{5E38454D-7637-4F23-AD81-C1DD33FB0D7C}"/>
     <hyperlink ref="H7" r:id="rId3" xr:uid="{9C1D1F7E-6881-4784-819F-F23EDB031D75}"/>
     <hyperlink ref="H4" r:id="rId4" xr:uid="{5754A4E9-BB56-4817-8667-AC8880DCFD0E}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{0ACCDFAE-1306-48A6-B87C-0B44E48C3401}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/GestionDeProjet/Commandes.xlsx
+++ b/GestionDeProjet/Commandes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s-cahors\Elsys\STAGES\22-9999-STAGE-ROBOT_AUTONOME_HOLONOME_V3\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBCB9D3-A313-4395-A191-156AFCE14B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE207695-853A-4B22-8585-917C3733DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Commande_0" sheetId="2" r:id="rId1"/>
+    <sheet name="Commande_1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Farnell</t>
   </si>
@@ -706,11 +707,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561DFD38-7497-417E-B455-76F9F6CDD7CA}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>36.43</v>
+      </c>
+      <c r="E2" s="36">
+        <v>1</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="18">
+        <v>36.43</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="35">
+        <v>9.99</v>
+      </c>
+      <c r="E4" s="36">
+        <v>2</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="22">
+        <v>19.98</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{B891679A-A000-4FFE-AA48-F1CDBBA69785}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{BCCBCC8D-DD9D-4D9A-83B4-D032F6884E99}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H988"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCellId="3" sqref="A4:XFD4 A5:XFD5 A10:XFD10 A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GestionDeProjet/Commandes.xlsx
+++ b/GestionDeProjet/Commandes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s-cahors\Elsys\STAGES\22-9999-STAGE-ROBOT_AUTONOME_HOLONOME_V3\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE207695-853A-4B22-8585-917C3733DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA46B38-2C77-46AE-9FFA-6376C3236024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Farnell</t>
   </si>
@@ -811,10 +811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H988"/>
+  <dimension ref="A1:H986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCellId="3" sqref="A4:XFD4 A5:XFD5 A10:XFD10 A1:XFD1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,167 +888,141 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="22">
-        <v>36.43</v>
-      </c>
-      <c r="E4" s="23">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="22">
+        <v>359</v>
+      </c>
+      <c r="E5" s="23">
         <v>1</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="18">
-        <f>D4*E4</f>
-        <v>36.43</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24">
+        <f>D5*E5</f>
+        <v>359</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="22">
-        <v>359</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="27">
+        <v>25.99</v>
+      </c>
+      <c r="E6" s="28">
         <v>1</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29">
         <f>D6*E6</f>
-        <v>359</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="27">
         <v>25.99</v>
       </c>
-      <c r="E7" s="28">
+      <c r="H6" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="35">
+        <v>23.59</v>
+      </c>
+      <c r="E8" s="36">
         <v>1</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29">
-        <f>D7*E7</f>
-        <v>25.99</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="35">
+      <c r="F8" s="37"/>
+      <c r="G8" s="22">
+        <f>D8*E8</f>
         <v>23.59</v>
       </c>
-      <c r="E9" s="36">
-        <v>1</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="22">
-        <f>D9*E9</f>
-        <v>23.59</v>
-      </c>
-      <c r="H9" s="25" t="s">
+      <c r="H8" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="35">
-        <v>9.99</v>
-      </c>
-      <c r="E10" s="36">
-        <v>2</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="22">
-        <f>D10*E10</f>
-        <v>19.98</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>25</v>
-      </c>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9">
+        <f>SUM(G2:G8)</f>
+        <v>446.25</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="9">
-        <f>SUM(G2:G10)</f>
-        <v>502.66</v>
-      </c>
-      <c r="H11" s="6"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
@@ -3021,24 +2995,24 @@
       <c r="H209" s="10"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-      <c r="H210" s="10"/>
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
-      <c r="B211" s="10"/>
-      <c r="C211" s="10"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="10"/>
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
@@ -3141,24 +3115,10 @@
       <c r="H221" s="1"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
       <c r="D222" s="12"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
       <c r="D223" s="12"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D224" s="12"/>
@@ -5449,22 +5409,14 @@
     <row r="986" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D986" s="12"/>
     </row>
-    <row r="987" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D987" s="12"/>
-    </row>
-    <row r="988" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D988" s="12"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{609C4B31-DB07-4687-A54E-E910D5FE5721}"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{609C4B31-DB07-4687-A54E-E910D5FE5721}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{5E38454D-7637-4F23-AD81-C1DD33FB0D7C}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{9C1D1F7E-6881-4784-819F-F23EDB031D75}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{5754A4E9-BB56-4817-8667-AC8880DCFD0E}"/>
-    <hyperlink ref="H9" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{0ACCDFAE-1306-48A6-B87C-0B44E48C3401}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{9C1D1F7E-6881-4784-819F-F23EDB031D75}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/GestionDeProjet/Commandes.xlsx
+++ b/GestionDeProjet/Commandes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s-cahors\Elsys\STAGES\22-9999-STAGE-ROBOT_AUTONOME_HOLONOME_V3\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6440E852-21A4-4716-8288-7D79ADEE7385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF6A1F9-48A7-45CA-8045-F2D27164B815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commande_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Budget" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>Farnell</t>
   </si>
@@ -47,13 +48,7 @@
     <t>Vendeur</t>
   </si>
   <si>
-    <t>prix/unité</t>
-  </si>
-  <si>
     <t>Quantité</t>
-  </si>
-  <si>
-    <t>frais de livraison</t>
   </si>
   <si>
     <t>Total</t>
@@ -155,10 +150,34 @@
     <t>Kit avec 5 Ultrasons compris</t>
   </si>
   <si>
-    <t>Choix des vendeurs en fonctionnement de la disponibilité pour chaque composant</t>
+    <t>Pas 0€, mais pas de chiffre précis</t>
   </si>
   <si>
-    <t>Pas 0€, mais pas de chiffre précis</t>
+    <t>Prix/unité</t>
+  </si>
+  <si>
+    <t>Frais de livraison</t>
+  </si>
+  <si>
+    <t>Choix des vendeurs en fonction de la disponibilité pour chaque composant</t>
+  </si>
+  <si>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>Totaux</t>
+  </si>
+  <si>
+    <t>Numero de commande</t>
+  </si>
+  <si>
+    <t>Produits</t>
+  </si>
+  <si>
+    <t>Factures</t>
+  </si>
+  <si>
+    <t>Date de Récéption</t>
   </si>
 </sst>
 </file>
@@ -170,7 +189,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +230,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -244,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -330,15 +361,39 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -349,6 +404,22 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -363,7 +434,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,12 +495,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -439,33 +504,66 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -750,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,8 +858,8 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="34"/>
-    <col min="6" max="6" width="18.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="33"/>
+    <col min="6" max="6" width="18.28515625" style="33" customWidth="1"/>
     <col min="8" max="8" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -775,43 +873,43 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="58.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="24"/>
+        <v>41</v>
+      </c>
+      <c r="D2" s="22"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <v>337.57</v>
       </c>
       <c r="E3" s="14">
@@ -820,17 +918,17 @@
       <c r="F3" s="15">
         <v>0</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="26">
         <f>D3*E3</f>
         <v>337.57</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="18" t="s">
@@ -850,18 +948,18 @@
         <v>24.6</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>7.9</v>
       </c>
       <c r="E5" s="14">
@@ -870,33 +968,33 @@
       <c r="F5" s="15">
         <v>0</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="26">
         <f>D5*E5</f>
         <v>7.9</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="24"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="26">
+        <v>9</v>
+      </c>
+      <c r="D7" s="24">
         <v>23.59</v>
       </c>
       <c r="E7" s="14">
@@ -905,23 +1003,23 @@
       <c r="F7" s="15">
         <v>0</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <f>D7*E7</f>
         <v>23.59</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="26">
+        <v>9</v>
+      </c>
+      <c r="D8" s="24">
         <v>9.99</v>
       </c>
       <c r="E8" s="14">
@@ -930,25 +1028,25 @@
       <c r="F8" s="15">
         <v>0</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <f>D8*E8</f>
         <v>9.99</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="26">
+        <v>9</v>
+      </c>
+      <c r="D9" s="24">
         <v>10.19</v>
       </c>
       <c r="E9" s="14">
@@ -957,23 +1055,23 @@
       <c r="F9" s="15">
         <v>0</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="27">
         <f>D9*E9</f>
         <v>10.19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="26">
+        <v>9</v>
+      </c>
+      <c r="D10" s="24">
         <v>6.59</v>
       </c>
       <c r="E10" s="14">
@@ -982,91 +1080,91 @@
       <c r="F10" s="15">
         <v>0</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="27">
         <f>D10*E10</f>
         <v>6.59</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="24"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="28"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="26">
+        <v>18</v>
+      </c>
+      <c r="D12" s="24">
         <v>12</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="30">
+        <v>38</v>
+      </c>
+      <c r="G12" s="27">
         <f>D12*E12</f>
         <v>12</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="24"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="26">
+        <v>20</v>
+      </c>
+      <c r="D14" s="24">
         <v>3.48</v>
       </c>
       <c r="E14" s="14">
         <v>4</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="30">
+      <c r="G14" s="27">
         <f t="shared" ref="G14:G19" si="0">D14*E14</f>
         <v>13.92</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="26">
+        <v>20</v>
+      </c>
+      <c r="D15" s="24">
         <v>7.27</v>
       </c>
       <c r="E15" s="14">
@@ -1075,33 +1173,33 @@
       <c r="F15" s="15">
         <v>20</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>7.27</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="24"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="26">
+        <v>27</v>
+      </c>
+      <c r="D17" s="24">
         <v>11.15</v>
       </c>
       <c r="E17" s="14">
@@ -1110,35 +1208,35 @@
       <c r="F17" s="15">
         <v>6.95</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="27">
         <f t="shared" si="0"/>
         <v>11.15</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="24"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="28"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <v>20.37</v>
       </c>
       <c r="E19" s="14">
@@ -1147,12 +1245,12 @@
       <c r="F19" s="15">
         <v>3.58</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="37">
         <f t="shared" si="0"/>
         <v>20.37</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1160,12 +1258,14 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="37">
+      <c r="E20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="41">
         <f>SUM(F3:F19)</f>
         <v>30.53</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="38">
         <f>SUM(G3:G19)</f>
         <v>485.13999999999993</v>
       </c>
@@ -1176,13 +1276,8 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="36">
-        <f>F20+G20</f>
-        <v>515.66999999999996</v>
-      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
@@ -1191,8 +1286,8 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
@@ -1201,8 +1296,13 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="E23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="29">
+        <f>F20+G20</f>
+        <v>515.66999999999996</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
@@ -1211,8 +1311,8 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
@@ -1221,8 +1321,8 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
@@ -1231,8 +1331,8 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
@@ -1241,8 +1341,8 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
@@ -1251,8 +1351,8 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
@@ -1261,8 +1361,8 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
@@ -1271,8 +1371,8 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
@@ -1281,8 +1381,8 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
@@ -1291,8 +1391,8 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
@@ -1301,8 +1401,8 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
@@ -1311,8 +1411,8 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
@@ -1321,8 +1421,8 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
@@ -1331,8 +1431,8 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
@@ -1341,8 +1441,8 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
@@ -1351,8 +1451,8 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
@@ -1361,8 +1461,8 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
@@ -1371,8 +1471,8 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
@@ -1381,8 +1481,8 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
@@ -1391,8 +1491,8 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
@@ -1401,8 +1501,8 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
@@ -1411,8 +1511,8 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
@@ -1421,8 +1521,8 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
@@ -1431,8 +1531,8 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
@@ -1441,8 +1541,8 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
@@ -1451,8 +1551,8 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
@@ -1461,8 +1561,8 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
@@ -1471,8 +1571,8 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
@@ -1481,8 +1581,8 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
@@ -1491,8 +1591,8 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
@@ -1501,8 +1601,8 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
@@ -1511,8 +1611,8 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
@@ -1521,8 +1621,8 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
@@ -1531,8 +1631,8 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
@@ -1541,8 +1641,8 @@
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
@@ -1551,8 +1651,8 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
@@ -1561,8 +1661,8 @@
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
@@ -1571,8 +1671,8 @@
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
@@ -1581,8 +1681,8 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
@@ -1591,8 +1691,8 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
@@ -1601,8 +1701,8 @@
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
@@ -1611,8 +1711,8 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
@@ -1621,8 +1721,8 @@
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
@@ -1631,8 +1731,8 @@
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
@@ -1641,8 +1741,8 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
@@ -1651,8 +1751,8 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
@@ -1661,8 +1761,8 @@
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
@@ -1671,8 +1771,8 @@
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
@@ -1681,8 +1781,8 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
@@ -1691,8 +1791,8 @@
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
@@ -1701,8 +1801,8 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
@@ -1711,8 +1811,8 @@
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
@@ -1721,8 +1821,8 @@
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
@@ -1731,8 +1831,8 @@
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
@@ -1741,8 +1841,8 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
@@ -1751,8 +1851,8 @@
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
@@ -1761,8 +1861,8 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
@@ -1771,8 +1871,8 @@
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
@@ -1781,8 +1881,8 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
@@ -1791,8 +1891,8 @@
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
@@ -1801,8 +1901,8 @@
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
@@ -1811,8 +1911,8 @@
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
@@ -1821,8 +1921,8 @@
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
@@ -1831,8 +1931,8 @@
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
@@ -1841,8 +1941,8 @@
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
@@ -1851,8 +1951,8 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
@@ -1861,8 +1961,8 @@
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
@@ -1871,8 +1971,8 @@
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
@@ -1881,8 +1981,8 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
@@ -1891,8 +1991,8 @@
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
@@ -1901,8 +2001,8 @@
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
@@ -1911,8 +2011,8 @@
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
@@ -1921,8 +2021,8 @@
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
@@ -1931,8 +2031,8 @@
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
@@ -1941,8 +2041,8 @@
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
@@ -1951,8 +2051,8 @@
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
@@ -1961,8 +2061,8 @@
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
@@ -1971,8 +2071,8 @@
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
@@ -1981,8 +2081,8 @@
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
@@ -1991,8 +2091,8 @@
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
@@ -2001,8 +2101,8 @@
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
@@ -2011,8 +2111,8 @@
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
@@ -2021,8 +2121,8 @@
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
@@ -2031,8 +2131,8 @@
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
@@ -2041,8 +2141,8 @@
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
     </row>
@@ -2051,8 +2151,8 @@
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
@@ -2061,8 +2161,8 @@
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="32"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
@@ -2071,8 +2171,8 @@
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="32"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
     </row>
@@ -2081,8 +2181,8 @@
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="32"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
@@ -2091,8 +2191,8 @@
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
@@ -2101,8 +2201,8 @@
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
@@ -2111,8 +2211,8 @@
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
@@ -2121,8 +2221,8 @@
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
     </row>
@@ -2131,8 +2231,8 @@
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
     </row>
@@ -2141,8 +2241,8 @@
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
@@ -2151,8 +2251,8 @@
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
     </row>
@@ -2161,8 +2261,8 @@
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
     </row>
@@ -2171,8 +2271,8 @@
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
     </row>
@@ -2181,8 +2281,8 @@
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
     </row>
@@ -2191,8 +2291,8 @@
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
     </row>
@@ -2201,8 +2301,8 @@
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
@@ -2211,8 +2311,8 @@
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="32"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
@@ -2221,8 +2321,8 @@
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
     </row>
@@ -2231,8 +2331,8 @@
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
     </row>
@@ -2241,8 +2341,8 @@
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
     </row>
@@ -2251,8 +2351,8 @@
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
@@ -2261,8 +2361,8 @@
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
@@ -2271,8 +2371,8 @@
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
@@ -2281,8 +2381,8 @@
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="32"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
@@ -2291,8 +2391,8 @@
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="32"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
@@ -2301,8 +2401,8 @@
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
@@ -2311,8 +2411,8 @@
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
@@ -2321,8 +2421,8 @@
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="32"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
@@ -2331,8 +2431,8 @@
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="32"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
@@ -2341,8 +2441,8 @@
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
@@ -2351,8 +2451,8 @@
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
     </row>
@@ -2361,8 +2461,8 @@
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
@@ -2371,8 +2471,8 @@
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
     </row>
@@ -2381,8 +2481,8 @@
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
     </row>
@@ -2391,8 +2491,8 @@
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
     </row>
@@ -2401,8 +2501,8 @@
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
@@ -2411,8 +2511,8 @@
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
@@ -2421,8 +2521,8 @@
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
     </row>
@@ -2431,8 +2531,8 @@
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
     </row>
@@ -2441,8 +2541,8 @@
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
     </row>
@@ -2451,8 +2551,8 @@
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
     </row>
@@ -2461,8 +2561,8 @@
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
     </row>
@@ -2471,8 +2571,8 @@
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
     </row>
@@ -2481,8 +2581,8 @@
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
@@ -2491,8 +2591,8 @@
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="32"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
@@ -2501,8 +2601,8 @@
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
@@ -2511,8 +2611,8 @@
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="31"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
@@ -2521,8 +2621,8 @@
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
@@ -2531,8 +2631,8 @@
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
     </row>
@@ -2541,8 +2641,8 @@
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="32"/>
-      <c r="F157" s="32"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="31"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
@@ -2551,8 +2651,8 @@
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
@@ -2561,8 +2661,8 @@
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
@@ -2571,8 +2671,8 @@
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="32"/>
-      <c r="F160" s="32"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
     </row>
@@ -2581,8 +2681,8 @@
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
     </row>
@@ -2591,8 +2691,8 @@
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
+      <c r="E162" s="31"/>
+      <c r="F162" s="31"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
     </row>
@@ -2601,8 +2701,8 @@
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="32"/>
-      <c r="F163" s="32"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
     </row>
@@ -2611,8 +2711,8 @@
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
@@ -2621,8 +2721,8 @@
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="32"/>
-      <c r="F165" s="32"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
     </row>
@@ -2631,8 +2731,8 @@
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="32"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
     </row>
@@ -2641,8 +2741,8 @@
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="32"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
     </row>
@@ -2651,8 +2751,8 @@
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
@@ -2661,8 +2761,8 @@
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
@@ -2671,8 +2771,8 @@
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="32"/>
-      <c r="F170" s="32"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
     </row>
@@ -2681,8 +2781,8 @@
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="32"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
     </row>
@@ -2691,8 +2791,8 @@
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="32"/>
-      <c r="F172" s="32"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
     </row>
@@ -2701,8 +2801,8 @@
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
@@ -2711,8 +2811,8 @@
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="32"/>
-      <c r="F174" s="32"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="31"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
@@ -2721,8 +2821,8 @@
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
@@ -2731,8 +2831,8 @@
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="32"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="31"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
@@ -2741,8 +2841,8 @@
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="32"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
@@ -2751,8 +2851,8 @@
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="32"/>
-      <c r="F178" s="32"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
@@ -2761,8 +2861,8 @@
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="4"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="32"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
     </row>
@@ -2771,8 +2871,8 @@
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="32"/>
-      <c r="F180" s="32"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
@@ -2781,8 +2881,8 @@
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="32"/>
-      <c r="F181" s="32"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
     </row>
@@ -2791,8 +2891,8 @@
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="32"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
@@ -2801,8 +2901,8 @@
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
-      <c r="E183" s="32"/>
-      <c r="F183" s="32"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
@@ -2811,8 +2911,8 @@
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="32"/>
-      <c r="F184" s="32"/>
+      <c r="E184" s="31"/>
+      <c r="F184" s="31"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
     </row>
@@ -2821,8 +2921,8 @@
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="4"/>
-      <c r="E185" s="32"/>
-      <c r="F185" s="32"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
     </row>
@@ -2831,8 +2931,8 @@
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="32"/>
-      <c r="F186" s="32"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
     </row>
@@ -2841,8 +2941,8 @@
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="32"/>
-      <c r="F187" s="32"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="31"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
     </row>
@@ -2851,8 +2951,8 @@
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="32"/>
-      <c r="F188" s="32"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
     </row>
@@ -2861,8 +2961,8 @@
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
-      <c r="E189" s="32"/>
-      <c r="F189" s="32"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="31"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
     </row>
@@ -2871,8 +2971,8 @@
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
-      <c r="E190" s="32"/>
-      <c r="F190" s="32"/>
+      <c r="E190" s="31"/>
+      <c r="F190" s="31"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
@@ -2881,8 +2981,8 @@
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="32"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
     </row>
@@ -2891,8 +2991,8 @@
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="31"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
     </row>
@@ -2901,8 +3001,8 @@
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="4"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
+      <c r="E193" s="31"/>
+      <c r="F193" s="31"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
     </row>
@@ -2911,8 +3011,8 @@
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="32"/>
-      <c r="F194" s="32"/>
+      <c r="E194" s="31"/>
+      <c r="F194" s="31"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
     </row>
@@ -2921,8 +3021,8 @@
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="4"/>
-      <c r="E195" s="32"/>
-      <c r="F195" s="32"/>
+      <c r="E195" s="31"/>
+      <c r="F195" s="31"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
     </row>
@@ -2931,8 +3031,8 @@
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="32"/>
-      <c r="F196" s="32"/>
+      <c r="E196" s="31"/>
+      <c r="F196" s="31"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
     </row>
@@ -2941,8 +3041,8 @@
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="32"/>
+      <c r="E197" s="31"/>
+      <c r="F197" s="31"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
     </row>
@@ -2951,8 +3051,8 @@
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
-      <c r="E198" s="32"/>
-      <c r="F198" s="32"/>
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
     </row>
@@ -2961,8 +3061,8 @@
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
-      <c r="E199" s="32"/>
-      <c r="F199" s="32"/>
+      <c r="E199" s="31"/>
+      <c r="F199" s="31"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
     </row>
@@ -2971,8 +3071,8 @@
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="32"/>
-      <c r="F200" s="32"/>
+      <c r="E200" s="31"/>
+      <c r="F200" s="31"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
     </row>
@@ -2981,8 +3081,8 @@
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="32"/>
-      <c r="F201" s="32"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
     </row>
@@ -2991,8 +3091,8 @@
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="32"/>
-      <c r="F202" s="32"/>
+      <c r="E202" s="31"/>
+      <c r="F202" s="31"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
     </row>
@@ -3001,8 +3101,8 @@
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="32"/>
-      <c r="F203" s="32"/>
+      <c r="E203" s="31"/>
+      <c r="F203" s="31"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
     </row>
@@ -3011,8 +3111,8 @@
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="32"/>
-      <c r="F204" s="32"/>
+      <c r="E204" s="31"/>
+      <c r="F204" s="31"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
     </row>
@@ -3021,8 +3121,8 @@
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
-      <c r="E205" s="32"/>
-      <c r="F205" s="32"/>
+      <c r="E205" s="31"/>
+      <c r="F205" s="31"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
     </row>
@@ -3031,8 +3131,8 @@
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="32"/>
-      <c r="F206" s="32"/>
+      <c r="E206" s="31"/>
+      <c r="F206" s="31"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
     </row>
@@ -3041,8 +3141,8 @@
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
-      <c r="E207" s="32"/>
-      <c r="F207" s="32"/>
+      <c r="E207" s="31"/>
+      <c r="F207" s="31"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
     </row>
@@ -3051,8 +3151,8 @@
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="4"/>
-      <c r="E208" s="32"/>
-      <c r="F208" s="32"/>
+      <c r="E208" s="31"/>
+      <c r="F208" s="31"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
     </row>
@@ -3061,8 +3161,8 @@
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="4"/>
-      <c r="E209" s="32"/>
-      <c r="F209" s="32"/>
+      <c r="E209" s="31"/>
+      <c r="F209" s="31"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
     </row>
@@ -3071,8 +3171,8 @@
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="4"/>
-      <c r="E210" s="32"/>
-      <c r="F210" s="32"/>
+      <c r="E210" s="31"/>
+      <c r="F210" s="31"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
     </row>
@@ -3081,8 +3181,8 @@
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="5"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="32"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
@@ -3091,8 +3191,8 @@
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="5"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="33"/>
+      <c r="E212" s="32"/>
+      <c r="F212" s="32"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
@@ -3101,8 +3201,8 @@
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="5"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33"/>
+      <c r="E213" s="32"/>
+      <c r="F213" s="32"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
@@ -3111,8 +3211,8 @@
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="5"/>
-      <c r="E214" s="33"/>
-      <c r="F214" s="33"/>
+      <c r="E214" s="32"/>
+      <c r="F214" s="32"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
@@ -3121,8 +3221,8 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="5"/>
-      <c r="E215" s="33"/>
-      <c r="F215" s="33"/>
+      <c r="E215" s="32"/>
+      <c r="F215" s="32"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
@@ -3131,8 +3231,8 @@
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="5"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="32"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
@@ -3141,8 +3241,8 @@
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="5"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="33"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
@@ -3151,8 +3251,8 @@
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="5"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="33"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="32"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
@@ -3161,8 +3261,8 @@
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="5"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="33"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="32"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
@@ -3171,8 +3271,8 @@
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="5"/>
-      <c r="E220" s="33"/>
-      <c r="F220" s="33"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
@@ -3181,8 +3281,8 @@
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="5"/>
-      <c r="E221" s="33"/>
-      <c r="F221" s="33"/>
+      <c r="E221" s="32"/>
+      <c r="F221" s="32"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
@@ -3191,8 +3291,8 @@
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="5"/>
-      <c r="E222" s="33"/>
-      <c r="F222" s="33"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="32"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
@@ -5509,4 +5609,4815 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6956C556-3A37-4B72-AFDC-C20EB71A0CB6}">
+  <dimension ref="A1:J987"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="33"/>
+    <col min="7" max="7" width="18.28515625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="57.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>337.57</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <f>E3*F3</f>
+        <v>337.57</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>24.6</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <f>E4*F4</f>
+        <v>24.6</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>7.9</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <f>E5*F5</f>
+        <v>7.9</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="24">
+        <v>23.59</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <f>E7*F7</f>
+        <v>23.59</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27">
+        <f>E8*F8</f>
+        <v>9.99</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="24">
+        <v>10.19</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27">
+        <f>E9*F9</f>
+        <v>10.19</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="24">
+        <v>6.59</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27">
+        <f>E10*F10</f>
+        <v>6.59</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="24">
+        <v>12</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="27">
+        <f>E12*F12</f>
+        <v>12</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="24">
+        <v>3.48</v>
+      </c>
+      <c r="F14" s="14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="27">
+        <f t="shared" ref="H14:H19" si="0">E14*F14</f>
+        <v>13.92</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="24">
+        <v>7.27</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>20</v>
+      </c>
+      <c r="H15" s="27">
+        <f t="shared" si="0"/>
+        <v>7.27</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="24">
+        <v>11.15</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <v>6.95</v>
+      </c>
+      <c r="H17" s="27">
+        <f t="shared" si="0"/>
+        <v>11.15</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="24">
+        <v>20.37</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <v>3.58</v>
+      </c>
+      <c r="H19" s="37">
+        <f t="shared" si="0"/>
+        <v>20.37</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="41">
+        <f>SUM(G3:G19)</f>
+        <v>30.53</v>
+      </c>
+      <c r="H20" s="38">
+        <f>SUM(H3:H19)</f>
+        <v>485.13999999999993</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="34"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="29">
+        <f>G20+H20</f>
+        <v>515.66999999999996</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="34"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="31"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="31"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="31"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="31"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="31"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="31"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="31"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="31"/>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="31"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="31"/>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="31"/>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="31"/>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="31"/>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="31"/>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="31"/>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="31"/>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="31"/>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="31"/>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="31"/>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="31"/>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="31"/>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="31"/>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="31"/>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="31"/>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="31"/>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="31"/>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="31"/>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="31"/>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="31"/>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="31"/>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="31"/>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="31"/>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="31"/>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="31"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="31"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="31"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="31"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="31"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="31"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="31"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="31"/>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="31"/>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="31"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="31"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="31"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="31"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="31"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="31"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="31"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="31"/>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="31"/>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="31"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="31"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="31"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="31"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="31"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="31"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="31"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="31"/>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="31"/>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="31"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="31"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="31"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="31"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="31"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="31"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="31"/>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="31"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="31"/>
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="31"/>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="31"/>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="31"/>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="31"/>
+    </row>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="31"/>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="31"/>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="31"/>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="31"/>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="31"/>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="31"/>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="31"/>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="31"/>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="31"/>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="31"/>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="31"/>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="31"/>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="31"/>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="31"/>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="31"/>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="31"/>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="31"/>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="31"/>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="31"/>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="31"/>
+    </row>
+    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="31"/>
+    </row>
+    <row r="126" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="31"/>
+    </row>
+    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="31"/>
+    </row>
+    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="31"/>
+    </row>
+    <row r="129" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="31"/>
+    </row>
+    <row r="130" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="31"/>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="31"/>
+    </row>
+    <row r="132" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="31"/>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="31"/>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="31"/>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="31"/>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="31"/>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="31"/>
+    </row>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="31"/>
+    </row>
+    <row r="139" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="31"/>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="31"/>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="31"/>
+    </row>
+    <row r="142" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="31"/>
+    </row>
+    <row r="143" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="31"/>
+    </row>
+    <row r="144" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="31"/>
+    </row>
+    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="31"/>
+    </row>
+    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="31"/>
+    </row>
+    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="31"/>
+    </row>
+    <row r="148" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="31"/>
+    </row>
+    <row r="149" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="31"/>
+    </row>
+    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="31"/>
+    </row>
+    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="31"/>
+    </row>
+    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="31"/>
+    </row>
+    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="31"/>
+    </row>
+    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="31"/>
+    </row>
+    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="31"/>
+    </row>
+    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="31"/>
+    </row>
+    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="31"/>
+    </row>
+    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="31"/>
+    </row>
+    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="31"/>
+    </row>
+    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="31"/>
+    </row>
+    <row r="161" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="31"/>
+    </row>
+    <row r="162" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="31"/>
+      <c r="G162" s="31"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="31"/>
+    </row>
+    <row r="163" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="31"/>
+    </row>
+    <row r="164" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="31"/>
+    </row>
+    <row r="165" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="31"/>
+    </row>
+    <row r="166" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="31"/>
+    </row>
+    <row r="167" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="31"/>
+    </row>
+    <row r="168" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="31"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="31"/>
+    </row>
+    <row r="169" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="31"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="31"/>
+    </row>
+    <row r="170" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="31"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="31"/>
+    </row>
+    <row r="171" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="31"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="31"/>
+    </row>
+    <row r="172" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="31"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="31"/>
+    </row>
+    <row r="173" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="31"/>
+    </row>
+    <row r="174" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="31"/>
+      <c r="G174" s="31"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="31"/>
+    </row>
+    <row r="175" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="31"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="31"/>
+    </row>
+    <row r="176" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="31"/>
+      <c r="G176" s="31"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="31"/>
+    </row>
+    <row r="177" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="31"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="31"/>
+    </row>
+    <row r="178" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="31"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="31"/>
+    </row>
+    <row r="179" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="31"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="31"/>
+    </row>
+    <row r="180" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="31"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="31"/>
+    </row>
+    <row r="181" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="31"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="31"/>
+    </row>
+    <row r="182" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="31"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="31"/>
+    </row>
+    <row r="183" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="31"/>
+      <c r="G183" s="31"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="31"/>
+    </row>
+    <row r="184" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="31"/>
+    </row>
+    <row r="185" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="31"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="31"/>
+    </row>
+    <row r="186" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="31"/>
+    </row>
+    <row r="187" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="31"/>
+      <c r="G187" s="31"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="31"/>
+    </row>
+    <row r="188" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="31"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="31"/>
+    </row>
+    <row r="189" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="31"/>
+      <c r="G189" s="31"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="31"/>
+    </row>
+    <row r="190" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="31"/>
+      <c r="G190" s="31"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="31"/>
+    </row>
+    <row r="191" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="31"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="31"/>
+    </row>
+    <row r="192" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="31"/>
+      <c r="G192" s="31"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="31"/>
+    </row>
+    <row r="193" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="31"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="31"/>
+    </row>
+    <row r="194" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="31"/>
+      <c r="G194" s="31"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="31"/>
+    </row>
+    <row r="195" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="31"/>
+      <c r="G195" s="31"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="31"/>
+    </row>
+    <row r="196" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="31"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="31"/>
+    </row>
+    <row r="197" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="31"/>
+      <c r="G197" s="31"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="31"/>
+    </row>
+    <row r="198" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="31"/>
+      <c r="G198" s="31"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="31"/>
+    </row>
+    <row r="199" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="31"/>
+      <c r="G199" s="31"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="31"/>
+    </row>
+    <row r="200" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="31"/>
+      <c r="G200" s="31"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="31"/>
+    </row>
+    <row r="201" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="31"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="31"/>
+    </row>
+    <row r="202" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="31"/>
+      <c r="G202" s="31"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="31"/>
+    </row>
+    <row r="203" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="31"/>
+      <c r="G203" s="31"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="31"/>
+    </row>
+    <row r="204" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="31"/>
+      <c r="G204" s="31"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="31"/>
+    </row>
+    <row r="205" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="31"/>
+      <c r="G205" s="31"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="31"/>
+    </row>
+    <row r="206" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="31"/>
+      <c r="G206" s="31"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="31"/>
+    </row>
+    <row r="207" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="31"/>
+      <c r="G207" s="31"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="31"/>
+    </row>
+    <row r="208" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="31"/>
+      <c r="G208" s="31"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="31"/>
+    </row>
+    <row r="209" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="31"/>
+      <c r="G209" s="31"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="31"/>
+    </row>
+    <row r="210" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="31"/>
+      <c r="G210" s="31"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="31"/>
+    </row>
+    <row r="211" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="32"/>
+      <c r="G211" s="32"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="32"/>
+    </row>
+    <row r="212" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="32"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="32"/>
+    </row>
+    <row r="213" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="32"/>
+      <c r="G213" s="32"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="32"/>
+    </row>
+    <row r="214" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="32"/>
+      <c r="G214" s="32"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="32"/>
+    </row>
+    <row r="215" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="32"/>
+      <c r="G215" s="32"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="32"/>
+    </row>
+    <row r="216" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="32"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="32"/>
+    </row>
+    <row r="217" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="32"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="32"/>
+    </row>
+    <row r="218" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="32"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="32"/>
+    </row>
+    <row r="219" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="32"/>
+    </row>
+    <row r="220" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="32"/>
+    </row>
+    <row r="221" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="32"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="32"/>
+    </row>
+    <row r="222" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="32"/>
+      <c r="G222" s="32"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="32"/>
+    </row>
+    <row r="223" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E223" s="5"/>
+    </row>
+    <row r="224" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E224" s="5"/>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225" s="5"/>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E226" s="5"/>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E227" s="5"/>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E228" s="5"/>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E229" s="5"/>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E230" s="5"/>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E231" s="5"/>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E232" s="5"/>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E233" s="5"/>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E234" s="5"/>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E235" s="5"/>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E236" s="5"/>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E237" s="5"/>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238" s="5"/>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239" s="5"/>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240" s="5"/>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" s="5"/>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242" s="5"/>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" s="5"/>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" s="5"/>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245" s="5"/>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246" s="5"/>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" s="5"/>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" s="5"/>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249" s="5"/>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250" s="5"/>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251" s="5"/>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252" s="5"/>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253" s="5"/>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254" s="5"/>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255" s="5"/>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256" s="5"/>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257" s="5"/>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258" s="5"/>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E259" s="5"/>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260" s="5"/>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E261" s="5"/>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262" s="5"/>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E263" s="5"/>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264" s="5"/>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E265" s="5"/>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266" s="5"/>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E267" s="5"/>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E268" s="5"/>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E269" s="5"/>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270" s="5"/>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E271" s="5"/>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272" s="5"/>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E273" s="5"/>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274" s="5"/>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E275" s="5"/>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E276" s="5"/>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E277" s="5"/>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E278" s="5"/>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E279" s="5"/>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E280" s="5"/>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E281" s="5"/>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E282" s="5"/>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E283" s="5"/>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E284" s="5"/>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E285" s="5"/>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E286" s="5"/>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E287" s="5"/>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E288" s="5"/>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E289" s="5"/>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E290" s="5"/>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E291" s="5"/>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E292" s="5"/>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E293" s="5"/>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E294" s="5"/>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E295" s="5"/>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E296" s="5"/>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E297" s="5"/>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E298" s="5"/>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E299" s="5"/>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E300" s="5"/>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E301" s="5"/>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E302" s="5"/>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E303" s="5"/>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E304" s="5"/>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E305" s="5"/>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E306" s="5"/>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E307" s="5"/>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E308" s="5"/>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E309" s="5"/>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E310" s="5"/>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E311" s="5"/>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E312" s="5"/>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E313" s="5"/>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E314" s="5"/>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E315" s="5"/>
+    </row>
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E316" s="5"/>
+    </row>
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E317" s="5"/>
+    </row>
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E318" s="5"/>
+    </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E319" s="5"/>
+    </row>
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E320" s="5"/>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321" s="5"/>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E322" s="5"/>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E323" s="5"/>
+    </row>
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E324" s="5"/>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E325" s="5"/>
+    </row>
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E326" s="5"/>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E327" s="5"/>
+    </row>
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E328" s="5"/>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E329" s="5"/>
+    </row>
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E330" s="5"/>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E331" s="5"/>
+    </row>
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E332" s="5"/>
+    </row>
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E333" s="5"/>
+    </row>
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E334" s="5"/>
+    </row>
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E335" s="5"/>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E336" s="5"/>
+    </row>
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E337" s="5"/>
+    </row>
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E338" s="5"/>
+    </row>
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E339" s="5"/>
+    </row>
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E340" s="5"/>
+    </row>
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E341" s="5"/>
+    </row>
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E342" s="5"/>
+    </row>
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E343" s="5"/>
+    </row>
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E344" s="5"/>
+    </row>
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E345" s="5"/>
+    </row>
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E346" s="5"/>
+    </row>
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E347" s="5"/>
+    </row>
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E348" s="5"/>
+    </row>
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E349" s="5"/>
+    </row>
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E350" s="5"/>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E351" s="5"/>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E352" s="5"/>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E353" s="5"/>
+    </row>
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E354" s="5"/>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E355" s="5"/>
+    </row>
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E356" s="5"/>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E357" s="5"/>
+    </row>
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E358" s="5"/>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E359" s="5"/>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E360" s="5"/>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E361" s="5"/>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E362" s="5"/>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E363" s="5"/>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E364" s="5"/>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E365" s="5"/>
+    </row>
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E366" s="5"/>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E367" s="5"/>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E368" s="5"/>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E369" s="5"/>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E370" s="5"/>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E371" s="5"/>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E372" s="5"/>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E373" s="5"/>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E374" s="5"/>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E375" s="5"/>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E376" s="5"/>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E377" s="5"/>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E378" s="5"/>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E379" s="5"/>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E380" s="5"/>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E381" s="5"/>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E382" s="5"/>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E383" s="5"/>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E384" s="5"/>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E385" s="5"/>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E386" s="5"/>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E387" s="5"/>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E388" s="5"/>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E389" s="5"/>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E390" s="5"/>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E391" s="5"/>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E392" s="5"/>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E393" s="5"/>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E394" s="5"/>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E395" s="5"/>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E396" s="5"/>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E397" s="5"/>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E398" s="5"/>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E399" s="5"/>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E400" s="5"/>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E401" s="5"/>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E402" s="5"/>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E403" s="5"/>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E404" s="5"/>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E405" s="5"/>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E406" s="5"/>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E407" s="5"/>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E408" s="5"/>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E409" s="5"/>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E410" s="5"/>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E411" s="5"/>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E412" s="5"/>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E413" s="5"/>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E414" s="5"/>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E415" s="5"/>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E416" s="5"/>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E417" s="5"/>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E418" s="5"/>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E419" s="5"/>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E420" s="5"/>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E421" s="5"/>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E422" s="5"/>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E423" s="5"/>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E424" s="5"/>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E425" s="5"/>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E426" s="5"/>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E427" s="5"/>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E428" s="5"/>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E429" s="5"/>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E430" s="5"/>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E431" s="5"/>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E432" s="5"/>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E433" s="5"/>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E434" s="5"/>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E435" s="5"/>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E436" s="5"/>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E437" s="5"/>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E438" s="5"/>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E439" s="5"/>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E440" s="5"/>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E441" s="5"/>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E442" s="5"/>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E443" s="5"/>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E444" s="5"/>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E445" s="5"/>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E446" s="5"/>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E447" s="5"/>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E448" s="5"/>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E449" s="5"/>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E450" s="5"/>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E451" s="5"/>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E452" s="5"/>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E453" s="5"/>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E454" s="5"/>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E455" s="5"/>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E456" s="5"/>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E457" s="5"/>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E458" s="5"/>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E459" s="5"/>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E460" s="5"/>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E461" s="5"/>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E462" s="5"/>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E463" s="5"/>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E464" s="5"/>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E465" s="5"/>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E466" s="5"/>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E467" s="5"/>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E468" s="5"/>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E469" s="5"/>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E470" s="5"/>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E471" s="5"/>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E472" s="5"/>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E473" s="5"/>
+    </row>
+    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E474" s="5"/>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E475" s="5"/>
+    </row>
+    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E476" s="5"/>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E477" s="5"/>
+    </row>
+    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E478" s="5"/>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E479" s="5"/>
+    </row>
+    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E480" s="5"/>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E481" s="5"/>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E482" s="5"/>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E483" s="5"/>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E484" s="5"/>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E485" s="5"/>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E486" s="5"/>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E487" s="5"/>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E488" s="5"/>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E489" s="5"/>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E490" s="5"/>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E491" s="5"/>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E492" s="5"/>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E493" s="5"/>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E494" s="5"/>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E495" s="5"/>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E496" s="5"/>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E497" s="5"/>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E498" s="5"/>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E499" s="5"/>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E500" s="5"/>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E501" s="5"/>
+    </row>
+    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E502" s="5"/>
+    </row>
+    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E503" s="5"/>
+    </row>
+    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E504" s="5"/>
+    </row>
+    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E505" s="5"/>
+    </row>
+    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E506" s="5"/>
+    </row>
+    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E507" s="5"/>
+    </row>
+    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E508" s="5"/>
+    </row>
+    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E509" s="5"/>
+    </row>
+    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E510" s="5"/>
+    </row>
+    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E511" s="5"/>
+    </row>
+    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E512" s="5"/>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E513" s="5"/>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E514" s="5"/>
+    </row>
+    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E515" s="5"/>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E516" s="5"/>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E517" s="5"/>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E518" s="5"/>
+    </row>
+    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E519" s="5"/>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E520" s="5"/>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E521" s="5"/>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E522" s="5"/>
+    </row>
+    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E523" s="5"/>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E524" s="5"/>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E525" s="5"/>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E526" s="5"/>
+    </row>
+    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E527" s="5"/>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E528" s="5"/>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E529" s="5"/>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E530" s="5"/>
+    </row>
+    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E531" s="5"/>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E532" s="5"/>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E533" s="5"/>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E534" s="5"/>
+    </row>
+    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E535" s="5"/>
+    </row>
+    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E536" s="5"/>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E537" s="5"/>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E538" s="5"/>
+    </row>
+    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E539" s="5"/>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E540" s="5"/>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E541" s="5"/>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E542" s="5"/>
+    </row>
+    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E543" s="5"/>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E544" s="5"/>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E545" s="5"/>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E546" s="5"/>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E547" s="5"/>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E548" s="5"/>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E549" s="5"/>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E550" s="5"/>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E551" s="5"/>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E552" s="5"/>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E553" s="5"/>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E554" s="5"/>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E555" s="5"/>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E556" s="5"/>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E557" s="5"/>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E558" s="5"/>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E559" s="5"/>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E560" s="5"/>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E561" s="5"/>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E562" s="5"/>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E563" s="5"/>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E564" s="5"/>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E565" s="5"/>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E566" s="5"/>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E567" s="5"/>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E568" s="5"/>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E569" s="5"/>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E570" s="5"/>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E571" s="5"/>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E572" s="5"/>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E573" s="5"/>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E574" s="5"/>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E575" s="5"/>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E576" s="5"/>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E577" s="5"/>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E578" s="5"/>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E579" s="5"/>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E580" s="5"/>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E581" s="5"/>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E582" s="5"/>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E583" s="5"/>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E584" s="5"/>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E585" s="5"/>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E586" s="5"/>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E587" s="5"/>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E588" s="5"/>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E589" s="5"/>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E590" s="5"/>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E591" s="5"/>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E592" s="5"/>
+    </row>
+    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E593" s="5"/>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E594" s="5"/>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E595" s="5"/>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E596" s="5"/>
+    </row>
+    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E597" s="5"/>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E598" s="5"/>
+    </row>
+    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E599" s="5"/>
+    </row>
+    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E600" s="5"/>
+    </row>
+    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E601" s="5"/>
+    </row>
+    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E602" s="5"/>
+    </row>
+    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E603" s="5"/>
+    </row>
+    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E604" s="5"/>
+    </row>
+    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E605" s="5"/>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E606" s="5"/>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E607" s="5"/>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E608" s="5"/>
+    </row>
+    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E609" s="5"/>
+    </row>
+    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E610" s="5"/>
+    </row>
+    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E611" s="5"/>
+    </row>
+    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E612" s="5"/>
+    </row>
+    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E613" s="5"/>
+    </row>
+    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E614" s="5"/>
+    </row>
+    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E615" s="5"/>
+    </row>
+    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E616" s="5"/>
+    </row>
+    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E617" s="5"/>
+    </row>
+    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E618" s="5"/>
+    </row>
+    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E619" s="5"/>
+    </row>
+    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E620" s="5"/>
+    </row>
+    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E621" s="5"/>
+    </row>
+    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E622" s="5"/>
+    </row>
+    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E623" s="5"/>
+    </row>
+    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E624" s="5"/>
+    </row>
+    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E625" s="5"/>
+    </row>
+    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E626" s="5"/>
+    </row>
+    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E627" s="5"/>
+    </row>
+    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E628" s="5"/>
+    </row>
+    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E629" s="5"/>
+    </row>
+    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E630" s="5"/>
+    </row>
+    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E631" s="5"/>
+    </row>
+    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E632" s="5"/>
+    </row>
+    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E633" s="5"/>
+    </row>
+    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E634" s="5"/>
+    </row>
+    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E635" s="5"/>
+    </row>
+    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E636" s="5"/>
+    </row>
+    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E637" s="5"/>
+    </row>
+    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E638" s="5"/>
+    </row>
+    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E639" s="5"/>
+    </row>
+    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E640" s="5"/>
+    </row>
+    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E641" s="5"/>
+    </row>
+    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E642" s="5"/>
+    </row>
+    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E643" s="5"/>
+    </row>
+    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E644" s="5"/>
+    </row>
+    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E645" s="5"/>
+    </row>
+    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E646" s="5"/>
+    </row>
+    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E647" s="5"/>
+    </row>
+    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E648" s="5"/>
+    </row>
+    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E649" s="5"/>
+    </row>
+    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E650" s="5"/>
+    </row>
+    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E651" s="5"/>
+    </row>
+    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E652" s="5"/>
+    </row>
+    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E653" s="5"/>
+    </row>
+    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E654" s="5"/>
+    </row>
+    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E655" s="5"/>
+    </row>
+    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E656" s="5"/>
+    </row>
+    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E657" s="5"/>
+    </row>
+    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E658" s="5"/>
+    </row>
+    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E659" s="5"/>
+    </row>
+    <row r="660" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E660" s="5"/>
+    </row>
+    <row r="661" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E661" s="5"/>
+    </row>
+    <row r="662" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E662" s="5"/>
+    </row>
+    <row r="663" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E663" s="5"/>
+    </row>
+    <row r="664" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E664" s="5"/>
+    </row>
+    <row r="665" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E665" s="5"/>
+    </row>
+    <row r="666" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E666" s="5"/>
+    </row>
+    <row r="667" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E667" s="5"/>
+    </row>
+    <row r="668" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E668" s="5"/>
+    </row>
+    <row r="669" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E669" s="5"/>
+    </row>
+    <row r="670" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E670" s="5"/>
+    </row>
+    <row r="671" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E671" s="5"/>
+    </row>
+    <row r="672" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E672" s="5"/>
+    </row>
+    <row r="673" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E673" s="5"/>
+    </row>
+    <row r="674" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E674" s="5"/>
+    </row>
+    <row r="675" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E675" s="5"/>
+    </row>
+    <row r="676" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E676" s="5"/>
+    </row>
+    <row r="677" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E677" s="5"/>
+    </row>
+    <row r="678" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E678" s="5"/>
+    </row>
+    <row r="679" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E679" s="5"/>
+    </row>
+    <row r="680" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E680" s="5"/>
+    </row>
+    <row r="681" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E681" s="5"/>
+    </row>
+    <row r="682" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E682" s="5"/>
+    </row>
+    <row r="683" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E683" s="5"/>
+    </row>
+    <row r="684" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E684" s="5"/>
+    </row>
+    <row r="685" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E685" s="5"/>
+    </row>
+    <row r="686" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E686" s="5"/>
+    </row>
+    <row r="687" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E687" s="5"/>
+    </row>
+    <row r="688" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E688" s="5"/>
+    </row>
+    <row r="689" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E689" s="5"/>
+    </row>
+    <row r="690" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E690" s="5"/>
+    </row>
+    <row r="691" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E691" s="5"/>
+    </row>
+    <row r="692" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E692" s="5"/>
+    </row>
+    <row r="693" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E693" s="5"/>
+    </row>
+    <row r="694" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E694" s="5"/>
+    </row>
+    <row r="695" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E695" s="5"/>
+    </row>
+    <row r="696" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E696" s="5"/>
+    </row>
+    <row r="697" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E697" s="5"/>
+    </row>
+    <row r="698" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E698" s="5"/>
+    </row>
+    <row r="699" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E699" s="5"/>
+    </row>
+    <row r="700" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E700" s="5"/>
+    </row>
+    <row r="701" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E701" s="5"/>
+    </row>
+    <row r="702" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E702" s="5"/>
+    </row>
+    <row r="703" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E703" s="5"/>
+    </row>
+    <row r="704" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E704" s="5"/>
+    </row>
+    <row r="705" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E705" s="5"/>
+    </row>
+    <row r="706" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E706" s="5"/>
+    </row>
+    <row r="707" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E707" s="5"/>
+    </row>
+    <row r="708" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E708" s="5"/>
+    </row>
+    <row r="709" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E709" s="5"/>
+    </row>
+    <row r="710" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E710" s="5"/>
+    </row>
+    <row r="711" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E711" s="5"/>
+    </row>
+    <row r="712" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E712" s="5"/>
+    </row>
+    <row r="713" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E713" s="5"/>
+    </row>
+    <row r="714" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E714" s="5"/>
+    </row>
+    <row r="715" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E715" s="5"/>
+    </row>
+    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E716" s="5"/>
+    </row>
+    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E717" s="5"/>
+    </row>
+    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E718" s="5"/>
+    </row>
+    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E719" s="5"/>
+    </row>
+    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E720" s="5"/>
+    </row>
+    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E721" s="5"/>
+    </row>
+    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E722" s="5"/>
+    </row>
+    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E723" s="5"/>
+    </row>
+    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E724" s="5"/>
+    </row>
+    <row r="725" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E725" s="5"/>
+    </row>
+    <row r="726" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E726" s="5"/>
+    </row>
+    <row r="727" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E727" s="5"/>
+    </row>
+    <row r="728" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E728" s="5"/>
+    </row>
+    <row r="729" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E729" s="5"/>
+    </row>
+    <row r="730" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E730" s="5"/>
+    </row>
+    <row r="731" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E731" s="5"/>
+    </row>
+    <row r="732" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E732" s="5"/>
+    </row>
+    <row r="733" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E733" s="5"/>
+    </row>
+    <row r="734" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E734" s="5"/>
+    </row>
+    <row r="735" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E735" s="5"/>
+    </row>
+    <row r="736" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E736" s="5"/>
+    </row>
+    <row r="737" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E737" s="5"/>
+    </row>
+    <row r="738" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E738" s="5"/>
+    </row>
+    <row r="739" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E739" s="5"/>
+    </row>
+    <row r="740" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E740" s="5"/>
+    </row>
+    <row r="741" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E741" s="5"/>
+    </row>
+    <row r="742" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E742" s="5"/>
+    </row>
+    <row r="743" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E743" s="5"/>
+    </row>
+    <row r="744" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E744" s="5"/>
+    </row>
+    <row r="745" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E745" s="5"/>
+    </row>
+    <row r="746" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E746" s="5"/>
+    </row>
+    <row r="747" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E747" s="5"/>
+    </row>
+    <row r="748" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E748" s="5"/>
+    </row>
+    <row r="749" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E749" s="5"/>
+    </row>
+    <row r="750" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E750" s="5"/>
+    </row>
+    <row r="751" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E751" s="5"/>
+    </row>
+    <row r="752" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E752" s="5"/>
+    </row>
+    <row r="753" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E753" s="5"/>
+    </row>
+    <row r="754" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E754" s="5"/>
+    </row>
+    <row r="755" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E755" s="5"/>
+    </row>
+    <row r="756" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E756" s="5"/>
+    </row>
+    <row r="757" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E757" s="5"/>
+    </row>
+    <row r="758" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E758" s="5"/>
+    </row>
+    <row r="759" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E759" s="5"/>
+    </row>
+    <row r="760" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E760" s="5"/>
+    </row>
+    <row r="761" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E761" s="5"/>
+    </row>
+    <row r="762" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E762" s="5"/>
+    </row>
+    <row r="763" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E763" s="5"/>
+    </row>
+    <row r="764" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E764" s="5"/>
+    </row>
+    <row r="765" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E765" s="5"/>
+    </row>
+    <row r="766" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E766" s="5"/>
+    </row>
+    <row r="767" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E767" s="5"/>
+    </row>
+    <row r="768" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E768" s="5"/>
+    </row>
+    <row r="769" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E769" s="5"/>
+    </row>
+    <row r="770" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E770" s="5"/>
+    </row>
+    <row r="771" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E771" s="5"/>
+    </row>
+    <row r="772" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E772" s="5"/>
+    </row>
+    <row r="773" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E773" s="5"/>
+    </row>
+    <row r="774" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E774" s="5"/>
+    </row>
+    <row r="775" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E775" s="5"/>
+    </row>
+    <row r="776" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E776" s="5"/>
+    </row>
+    <row r="777" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E777" s="5"/>
+    </row>
+    <row r="778" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E778" s="5"/>
+    </row>
+    <row r="779" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E779" s="5"/>
+    </row>
+    <row r="780" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E780" s="5"/>
+    </row>
+    <row r="781" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E781" s="5"/>
+    </row>
+    <row r="782" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E782" s="5"/>
+    </row>
+    <row r="783" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E783" s="5"/>
+    </row>
+    <row r="784" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E784" s="5"/>
+    </row>
+    <row r="785" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E785" s="5"/>
+    </row>
+    <row r="786" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E786" s="5"/>
+    </row>
+    <row r="787" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E787" s="5"/>
+    </row>
+    <row r="788" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E788" s="5"/>
+    </row>
+    <row r="789" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E789" s="5"/>
+    </row>
+    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E790" s="5"/>
+    </row>
+    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E791" s="5"/>
+    </row>
+    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E792" s="5"/>
+    </row>
+    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E793" s="5"/>
+    </row>
+    <row r="794" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E794" s="5"/>
+    </row>
+    <row r="795" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E795" s="5"/>
+    </row>
+    <row r="796" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E796" s="5"/>
+    </row>
+    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E797" s="5"/>
+    </row>
+    <row r="798" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E798" s="5"/>
+    </row>
+    <row r="799" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E799" s="5"/>
+    </row>
+    <row r="800" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E800" s="5"/>
+    </row>
+    <row r="801" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E801" s="5"/>
+    </row>
+    <row r="802" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E802" s="5"/>
+    </row>
+    <row r="803" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E803" s="5"/>
+    </row>
+    <row r="804" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E804" s="5"/>
+    </row>
+    <row r="805" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E805" s="5"/>
+    </row>
+    <row r="806" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E806" s="5"/>
+    </row>
+    <row r="807" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E807" s="5"/>
+    </row>
+    <row r="808" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E808" s="5"/>
+    </row>
+    <row r="809" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E809" s="5"/>
+    </row>
+    <row r="810" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E810" s="5"/>
+    </row>
+    <row r="811" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E811" s="5"/>
+    </row>
+    <row r="812" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E812" s="5"/>
+    </row>
+    <row r="813" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E813" s="5"/>
+    </row>
+    <row r="814" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E814" s="5"/>
+    </row>
+    <row r="815" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E815" s="5"/>
+    </row>
+    <row r="816" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E816" s="5"/>
+    </row>
+    <row r="817" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E817" s="5"/>
+    </row>
+    <row r="818" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E818" s="5"/>
+    </row>
+    <row r="819" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E819" s="5"/>
+    </row>
+    <row r="820" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E820" s="5"/>
+    </row>
+    <row r="821" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E821" s="5"/>
+    </row>
+    <row r="822" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E822" s="5"/>
+    </row>
+    <row r="823" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E823" s="5"/>
+    </row>
+    <row r="824" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E824" s="5"/>
+    </row>
+    <row r="825" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E825" s="5"/>
+    </row>
+    <row r="826" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E826" s="5"/>
+    </row>
+    <row r="827" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E827" s="5"/>
+    </row>
+    <row r="828" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E828" s="5"/>
+    </row>
+    <row r="829" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E829" s="5"/>
+    </row>
+    <row r="830" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E830" s="5"/>
+    </row>
+    <row r="831" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E831" s="5"/>
+    </row>
+    <row r="832" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E832" s="5"/>
+    </row>
+    <row r="833" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E833" s="5"/>
+    </row>
+    <row r="834" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E834" s="5"/>
+    </row>
+    <row r="835" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E835" s="5"/>
+    </row>
+    <row r="836" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E836" s="5"/>
+    </row>
+    <row r="837" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E837" s="5"/>
+    </row>
+    <row r="838" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E838" s="5"/>
+    </row>
+    <row r="839" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E839" s="5"/>
+    </row>
+    <row r="840" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E840" s="5"/>
+    </row>
+    <row r="841" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E841" s="5"/>
+    </row>
+    <row r="842" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E842" s="5"/>
+    </row>
+    <row r="843" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E843" s="5"/>
+    </row>
+    <row r="844" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E844" s="5"/>
+    </row>
+    <row r="845" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E845" s="5"/>
+    </row>
+    <row r="846" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E846" s="5"/>
+    </row>
+    <row r="847" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E847" s="5"/>
+    </row>
+    <row r="848" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E848" s="5"/>
+    </row>
+    <row r="849" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E849" s="5"/>
+    </row>
+    <row r="850" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E850" s="5"/>
+    </row>
+    <row r="851" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E851" s="5"/>
+    </row>
+    <row r="852" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E852" s="5"/>
+    </row>
+    <row r="853" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E853" s="5"/>
+    </row>
+    <row r="854" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E854" s="5"/>
+    </row>
+    <row r="855" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E855" s="5"/>
+    </row>
+    <row r="856" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E856" s="5"/>
+    </row>
+    <row r="857" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E857" s="5"/>
+    </row>
+    <row r="858" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E858" s="5"/>
+    </row>
+    <row r="859" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E859" s="5"/>
+    </row>
+    <row r="860" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E860" s="5"/>
+    </row>
+    <row r="861" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E861" s="5"/>
+    </row>
+    <row r="862" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E862" s="5"/>
+    </row>
+    <row r="863" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E863" s="5"/>
+    </row>
+    <row r="864" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E864" s="5"/>
+    </row>
+    <row r="865" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E865" s="5"/>
+    </row>
+    <row r="866" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E866" s="5"/>
+    </row>
+    <row r="867" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E867" s="5"/>
+    </row>
+    <row r="868" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E868" s="5"/>
+    </row>
+    <row r="869" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E869" s="5"/>
+    </row>
+    <row r="870" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E870" s="5"/>
+    </row>
+    <row r="871" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E871" s="5"/>
+    </row>
+    <row r="872" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E872" s="5"/>
+    </row>
+    <row r="873" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E873" s="5"/>
+    </row>
+    <row r="874" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E874" s="5"/>
+    </row>
+    <row r="875" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E875" s="5"/>
+    </row>
+    <row r="876" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E876" s="5"/>
+    </row>
+    <row r="877" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E877" s="5"/>
+    </row>
+    <row r="878" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E878" s="5"/>
+    </row>
+    <row r="879" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E879" s="5"/>
+    </row>
+    <row r="880" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E880" s="5"/>
+    </row>
+    <row r="881" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E881" s="5"/>
+    </row>
+    <row r="882" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E882" s="5"/>
+    </row>
+    <row r="883" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E883" s="5"/>
+    </row>
+    <row r="884" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E884" s="5"/>
+    </row>
+    <row r="885" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E885" s="5"/>
+    </row>
+    <row r="886" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E886" s="5"/>
+    </row>
+    <row r="887" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E887" s="5"/>
+    </row>
+    <row r="888" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E888" s="5"/>
+    </row>
+    <row r="889" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E889" s="5"/>
+    </row>
+    <row r="890" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E890" s="5"/>
+    </row>
+    <row r="891" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E891" s="5"/>
+    </row>
+    <row r="892" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E892" s="5"/>
+    </row>
+    <row r="893" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E893" s="5"/>
+    </row>
+    <row r="894" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E894" s="5"/>
+    </row>
+    <row r="895" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E895" s="5"/>
+    </row>
+    <row r="896" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E896" s="5"/>
+    </row>
+    <row r="897" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E897" s="5"/>
+    </row>
+    <row r="898" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E898" s="5"/>
+    </row>
+    <row r="899" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E899" s="5"/>
+    </row>
+    <row r="900" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E900" s="5"/>
+    </row>
+    <row r="901" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E901" s="5"/>
+    </row>
+    <row r="902" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E902" s="5"/>
+    </row>
+    <row r="903" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E903" s="5"/>
+    </row>
+    <row r="904" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E904" s="5"/>
+    </row>
+    <row r="905" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E905" s="5"/>
+    </row>
+    <row r="906" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E906" s="5"/>
+    </row>
+    <row r="907" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E907" s="5"/>
+    </row>
+    <row r="908" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E908" s="5"/>
+    </row>
+    <row r="909" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E909" s="5"/>
+    </row>
+    <row r="910" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E910" s="5"/>
+    </row>
+    <row r="911" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E911" s="5"/>
+    </row>
+    <row r="912" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E912" s="5"/>
+    </row>
+    <row r="913" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E913" s="5"/>
+    </row>
+    <row r="914" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E914" s="5"/>
+    </row>
+    <row r="915" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E915" s="5"/>
+    </row>
+    <row r="916" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E916" s="5"/>
+    </row>
+    <row r="917" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E917" s="5"/>
+    </row>
+    <row r="918" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E918" s="5"/>
+    </row>
+    <row r="919" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E919" s="5"/>
+    </row>
+    <row r="920" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E920" s="5"/>
+    </row>
+    <row r="921" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E921" s="5"/>
+    </row>
+    <row r="922" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E922" s="5"/>
+    </row>
+    <row r="923" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E923" s="5"/>
+    </row>
+    <row r="924" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E924" s="5"/>
+    </row>
+    <row r="925" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E925" s="5"/>
+    </row>
+    <row r="926" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E926" s="5"/>
+    </row>
+    <row r="927" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E927" s="5"/>
+    </row>
+    <row r="928" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E928" s="5"/>
+    </row>
+    <row r="929" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E929" s="5"/>
+    </row>
+    <row r="930" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E930" s="5"/>
+    </row>
+    <row r="931" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E931" s="5"/>
+    </row>
+    <row r="932" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E932" s="5"/>
+    </row>
+    <row r="933" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E933" s="5"/>
+    </row>
+    <row r="934" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E934" s="5"/>
+    </row>
+    <row r="935" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E935" s="5"/>
+    </row>
+    <row r="936" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E936" s="5"/>
+    </row>
+    <row r="937" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E937" s="5"/>
+    </row>
+    <row r="938" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E938" s="5"/>
+    </row>
+    <row r="939" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E939" s="5"/>
+    </row>
+    <row r="940" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E940" s="5"/>
+    </row>
+    <row r="941" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E941" s="5"/>
+    </row>
+    <row r="942" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E942" s="5"/>
+    </row>
+    <row r="943" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E943" s="5"/>
+    </row>
+    <row r="944" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E944" s="5"/>
+    </row>
+    <row r="945" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E945" s="5"/>
+    </row>
+    <row r="946" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E946" s="5"/>
+    </row>
+    <row r="947" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E947" s="5"/>
+    </row>
+    <row r="948" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E948" s="5"/>
+    </row>
+    <row r="949" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E949" s="5"/>
+    </row>
+    <row r="950" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E950" s="5"/>
+    </row>
+    <row r="951" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E951" s="5"/>
+    </row>
+    <row r="952" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E952" s="5"/>
+    </row>
+    <row r="953" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E953" s="5"/>
+    </row>
+    <row r="954" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E954" s="5"/>
+    </row>
+    <row r="955" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E955" s="5"/>
+    </row>
+    <row r="956" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E956" s="5"/>
+    </row>
+    <row r="957" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E957" s="5"/>
+    </row>
+    <row r="958" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E958" s="5"/>
+    </row>
+    <row r="959" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E959" s="5"/>
+    </row>
+    <row r="960" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E960" s="5"/>
+    </row>
+    <row r="961" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E961" s="5"/>
+    </row>
+    <row r="962" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E962" s="5"/>
+    </row>
+    <row r="963" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E963" s="5"/>
+    </row>
+    <row r="964" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E964" s="5"/>
+    </row>
+    <row r="965" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E965" s="5"/>
+    </row>
+    <row r="966" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E966" s="5"/>
+    </row>
+    <row r="967" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E967" s="5"/>
+    </row>
+    <row r="968" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E968" s="5"/>
+    </row>
+    <row r="969" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E969" s="5"/>
+    </row>
+    <row r="970" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E970" s="5"/>
+    </row>
+    <row r="971" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E971" s="5"/>
+    </row>
+    <row r="972" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E972" s="5"/>
+    </row>
+    <row r="973" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E973" s="5"/>
+    </row>
+    <row r="974" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E974" s="5"/>
+    </row>
+    <row r="975" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E975" s="5"/>
+    </row>
+    <row r="976" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E976" s="5"/>
+    </row>
+    <row r="977" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E977" s="5"/>
+    </row>
+    <row r="978" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E978" s="5"/>
+    </row>
+    <row r="979" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E979" s="5"/>
+    </row>
+    <row r="980" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E980" s="5"/>
+    </row>
+    <row r="981" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E981" s="5"/>
+    </row>
+    <row r="982" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E982" s="5"/>
+    </row>
+    <row r="983" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E983" s="5"/>
+    </row>
+    <row r="984" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E984" s="5"/>
+    </row>
+    <row r="985" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E985" s="5"/>
+    </row>
+    <row r="986" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E986" s="5"/>
+    </row>
+    <row r="987" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E987" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A19"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{BB869023-E499-4DFE-B8A0-15E327C10E2B}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{48AD92F2-D882-45B9-9546-A63CEA9B80F5}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{9F4EDE12-47C9-4EFA-A07B-E219DAC42DC7}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{7AFEECAD-90BE-4C18-BA15-B889631D7332}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{DC42346A-3BD6-4CC9-BB55-6B9ED37071C1}"/>
+    <hyperlink ref="I12" r:id="rId6" xr:uid="{ADC5F0B6-8A40-4468-8A87-F162B30DF13B}"/>
+    <hyperlink ref="I15" r:id="rId7" xr:uid="{796E7523-BCFB-4016-B0A5-5A9FF19443C0}"/>
+    <hyperlink ref="I14" r:id="rId8" xr:uid="{1A584658-A3C8-4B5A-A207-3F6E1FA6EEB8}"/>
+    <hyperlink ref="I17" r:id="rId9" display="https://fr.rs-online.com/web/p/kits-et-cartes-compatibles-arduino/1360855?cm_mmc=FR-PLA-DS3A-_-google-_-CSS_FR_FR_Raspberry_Pi_%26_Arduino_%26_Outils_de_d%C3%A9veloppement_Whoop-_-(FR:Whoop!)+Kits+et+cartes+compatibles+Arduino-_-1360855&amp;matchtype=&amp;aud-827186183686:pla-493204493752&amp;gclid=CjwKCAjwo8-SBhAlEiwAopc9W3rko9chneqEUFivSkILq7tZX10YPpmCMmwalplUOsf8MvcG5doy-xoC6bkQAvD_BwE&amp;gclsrc=aw.ds" xr:uid="{83D5DAB9-3FB4-4DC8-A41A-7BD069509710}"/>
+    <hyperlink ref="I19" r:id="rId10" xr:uid="{09C581F8-5D80-4133-B971-8C2D483E3FB9}"/>
+    <hyperlink ref="I9" r:id="rId11" display="https://www.amazon.fr/ELEGOO-Ultrason-Distance-MEGA2560-Ultrasonic/dp/B06XSJPVW9/ref=sr_1_1_sspa?keywords=US+HC-SR04&amp;qid=1650984368&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyMzNNNE8xSDU5MjVCJmVuY3J5cHRlZElkPUEwNDIyMjQyMUJKMkROMkNWREdDNCZlbmNyeXB0ZWRBZElkPUEwNDgwNjA0MzZJTlFLRURORVlQQyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{298EA625-A76C-4792-80BF-9CE9217A0174}"/>
+    <hyperlink ref="I10" r:id="rId12" xr:uid="{E919EC81-9C51-468A-AE1B-D9D46C33330C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+</worksheet>
 </file>
--- a/GestionDeProjet/Commandes.xlsx
+++ b/GestionDeProjet/Commandes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s-cahors\Elsys\STAGES\22-9999-STAGE-ROBOT_AUTONOME_HOLONOME_V3\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF6A1F9-48A7-45CA-8045-F2D27164B815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47869703-47AC-484E-A1C3-F672C66B7F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -549,6 +549,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,11 +564,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5616,7 +5622,7 @@
   <dimension ref="A1:J987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5636,7 +5642,7 @@
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5648,10 +5654,10 @@
       <c r="E1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="43" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -5660,7 +5666,7 @@
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="43" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5674,10 +5680,10 @@
       <c r="G2" s="10"/>
       <c r="H2" s="25"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
       <c r="B3" s="16"/>
@@ -5703,10 +5709,12 @@
       <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="47">
+        <v>44683</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>7</v>
@@ -5730,10 +5738,10 @@
       <c r="I4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
         <v>17</v>
@@ -5757,10 +5765,10 @@
       <c r="I5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -5769,10 +5777,10 @@
       <c r="G6" s="10"/>
       <c r="H6" s="25"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
@@ -5796,10 +5804,10 @@
       <c r="I7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
         <v>11</v>
@@ -5823,10 +5831,10 @@
       <c r="I8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
         <v>34</v>
@@ -5850,10 +5858,10 @@
       <c r="I9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
         <v>36</v>
@@ -5877,10 +5885,10 @@
       <c r="I10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5889,10 +5897,10 @@
       <c r="G11" s="10"/>
       <c r="H11" s="25"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
         <v>25</v>
@@ -5916,10 +5924,12 @@
       <c r="I12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="47">
+        <v>44680</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -5928,10 +5938,10 @@
       <c r="G13" s="10"/>
       <c r="H13" s="25"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
         <v>24</v>
@@ -5953,10 +5963,12 @@
       <c r="I14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="47">
+        <v>44683</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
         <v>23</v>
@@ -5980,10 +5992,12 @@
       <c r="I15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="47">
+        <v>44683</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -5992,10 +6006,10 @@
       <c r="G16" s="10"/>
       <c r="H16" s="25"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
         <v>26</v>
@@ -6019,10 +6033,10 @@
       <c r="I17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -6031,10 +6045,10 @@
       <c r="G18" s="10"/>
       <c r="H18" s="25"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
         <v>30</v>
@@ -6058,7 +6072,7 @@
       <c r="I19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>

--- a/GestionDeProjet/Commandes.xlsx
+++ b/GestionDeProjet/Commandes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s-cahors\Elsys\STAGES\22-9999-STAGE-ROBOT_AUTONOME_HOLONOME_V3\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47869703-47AC-484E-A1C3-F672C66B7F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A0F797-FCDF-43CA-953C-0D617EFA58A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,6 +555,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -563,12 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5621,8 +5621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6956C556-3A37-4B72-AFDC-C20EB71A0CB6}">
   <dimension ref="A1:J987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,10 +5680,10 @@
       <c r="G2" s="10"/>
       <c r="H2" s="25"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="48"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
       <c r="B3" s="16"/>
@@ -5709,12 +5709,12 @@
       <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="44">
         <v>44683</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>7</v>
@@ -5738,10 +5738,12 @@
       <c r="I4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="44">
+        <v>44684</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
         <v>17</v>
@@ -5765,10 +5767,12 @@
       <c r="I5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="47"/>
+      <c r="J5" s="44">
+        <v>44684</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -5777,10 +5781,10 @@
       <c r="G6" s="10"/>
       <c r="H6" s="25"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="48"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
@@ -5804,10 +5808,12 @@
       <c r="I7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="47"/>
+      <c r="J7" s="44">
+        <v>44686</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
         <v>11</v>
@@ -5831,10 +5837,12 @@
       <c r="I8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="44">
+        <v>44686</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
         <v>34</v>
@@ -5858,10 +5866,12 @@
       <c r="I9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="47"/>
+      <c r="J9" s="44">
+        <v>44686</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
         <v>36</v>
@@ -5885,10 +5895,12 @@
       <c r="I10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="44">
+        <v>44686</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5897,10 +5909,10 @@
       <c r="G11" s="10"/>
       <c r="H11" s="25"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="48"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
         <v>25</v>
@@ -5924,12 +5936,12 @@
       <c r="I12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="44">
         <v>44680</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -5938,10 +5950,10 @@
       <c r="G13" s="10"/>
       <c r="H13" s="25"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="48"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
         <v>24</v>
@@ -5963,12 +5975,12 @@
       <c r="I14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="44">
         <v>44683</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
         <v>23</v>
@@ -5992,12 +6004,12 @@
       <c r="I15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="44">
         <v>44683</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -6006,10 +6018,10 @@
       <c r="G16" s="10"/>
       <c r="H16" s="25"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="48"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
         <v>26</v>
@@ -6033,10 +6045,10 @@
       <c r="I17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -6045,10 +6057,10 @@
       <c r="G18" s="10"/>
       <c r="H18" s="25"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="48"/>
+      <c r="J18" s="45"/>
     </row>
     <row r="19" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
         <v>30</v>
@@ -6072,7 +6084,7 @@
       <c r="I19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="47"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
